--- a/src/main/resources/templates/template_2.xlsx
+++ b/src/main/resources/templates/template_2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pavelkozlov/IdeaProjects/brackets-excel/src/main/resources/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E173806B-68A9-0447-8CB7-E50F96BA62DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE96D4DD-68BB-D64F-8111-D4D31B6A79A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="34560" windowHeight="21600" xr2:uid="{A0EA6DA9-2823-9B4C-BBEC-0E1CE15C1254}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20100" xr2:uid="{A0EA6DA9-2823-9B4C-BBEC-0E1CE15C1254}"/>
   </bookViews>
   <sheets>
     <sheet name="tempalte" sheetId="1" r:id="rId1"/>
@@ -56,12 +56,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
-    <t>Возр   кат.</t>
-  </si>
-  <si>
-    <t>Вес   кат.</t>
-  </si>
-  <si>
     <t>1 место</t>
   </si>
   <si>
@@ -88,12 +82,18 @@
   <si>
     <t>${graph.get("ONE").get(0).participant.lastName} ${graph.get("ONE").get(0).participant.firstName} ${graph.get("ONE").get(0).participant.team? "(" + graph.get("ONE").get(0).participant.team + ")" : null}</t>
   </si>
+  <si>
+    <t>Возр кат.</t>
+  </si>
+  <si>
+    <t>Вес кат.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -109,26 +109,14 @@
       <charset val="204"/>
     </font>
     <font>
-      <sz val="18"/>
+      <sz val="20"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="204"/>
     </font>
     <font>
-      <sz val="8"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b/>
-      <sz val="10"/>
+      <sz val="12"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="204"/>
@@ -194,23 +182,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -237,9 +224,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -277,7 +264,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -383,7 +370,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -525,7 +512,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -544,70 +531,70 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O45"/>
+  <dimension ref="A1:R46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+      <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
-      <c r="C1" s="6" t="s">
-        <v>6</v>
+      <c r="C1" s="2" t="s">
+        <v>4</v>
       </c>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
       <c r="M3" s="1"/>
-      <c r="N3" s="2" t="s">
-        <v>0</v>
+      <c r="N3" s="3" t="s">
+        <v>9</v>
       </c>
-      <c r="O3" s="2" t="s">
-        <v>7</v>
+      <c r="O3" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -621,10 +608,10 @@
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-    </row>
-    <row r="5" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+    </row>
+    <row r="5" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -638,14 +625,14 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
-      <c r="N5" s="2" t="s">
-        <v>1</v>
+      <c r="N5" s="3" t="s">
+        <v>10</v>
       </c>
-      <c r="O5" s="9" t="s">
-        <v>8</v>
+      <c r="O5" s="5" t="s">
+        <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -662,7 +649,7 @@
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -679,7 +666,7 @@
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -696,7 +683,7 @@
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -712,10 +699,10 @@
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="N10" s="1"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -731,7 +718,7 @@
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -746,394 +733,684 @@
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="N13" s="1"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="N14" s="1"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="N15" s="1"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="N16" s="1"/>
-    </row>
-    <row r="17" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D17" s="1">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="6"/>
+      <c r="R14" s="6"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="6"/>
+      <c r="P15" s="6"/>
+      <c r="Q15" s="6"/>
+      <c r="R15" s="6"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="4"/>
+      <c r="O16" s="6"/>
+      <c r="P16" s="6"/>
+      <c r="Q16" s="6"/>
+      <c r="R16" s="6"/>
+    </row>
+    <row r="17" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="4">
         <v>1</v>
       </c>
-      <c r="E17" s="2" t="s">
-        <v>9</v>
+      <c r="E17" s="3" t="s">
+        <v>7</v>
       </c>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="N17" s="1"/>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="N18" s="1"/>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="N19" s="1"/>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="N20" s="1"/>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="N21" s="1"/>
-    </row>
-    <row r="22" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-      <c r="N22" s="1"/>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="N23" s="1"/>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="N24" s="1"/>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="N25" s="1"/>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="N26" s="1"/>
-    </row>
-    <row r="27" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1">
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="4"/>
+      <c r="O17" s="6"/>
+      <c r="P17" s="6"/>
+      <c r="Q17" s="6"/>
+      <c r="R17" s="6"/>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A18" s="6"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="4"/>
+      <c r="O18" s="6"/>
+      <c r="P18" s="6"/>
+      <c r="Q18" s="6"/>
+      <c r="R18" s="6"/>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A19" s="6"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="4"/>
+      <c r="O19" s="6"/>
+      <c r="P19" s="6"/>
+      <c r="Q19" s="6"/>
+      <c r="R19" s="6"/>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A20" s="6"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6"/>
+      <c r="N20" s="4"/>
+      <c r="O20" s="6"/>
+      <c r="P20" s="6"/>
+      <c r="Q20" s="6"/>
+      <c r="R20" s="6"/>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A21" s="6"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="6"/>
+      <c r="N21" s="4"/>
+      <c r="O21" s="6"/>
+      <c r="P21" s="6"/>
+      <c r="Q21" s="6"/>
+      <c r="R21" s="6"/>
+    </row>
+    <row r="22" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="6"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="6"/>
+      <c r="N22" s="4"/>
+      <c r="O22" s="6"/>
+      <c r="P22" s="6"/>
+      <c r="Q22" s="6"/>
+      <c r="R22" s="6"/>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A23" s="6"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
+      <c r="M23" s="6"/>
+      <c r="N23" s="4"/>
+      <c r="O23" s="6"/>
+      <c r="P23" s="6"/>
+      <c r="Q23" s="6"/>
+      <c r="R23" s="6"/>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A24" s="6"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="6"/>
+      <c r="N24" s="4"/>
+      <c r="O24" s="6"/>
+      <c r="P24" s="6"/>
+      <c r="Q24" s="6"/>
+      <c r="R24" s="6"/>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="6"/>
+      <c r="M25" s="6"/>
+      <c r="N25" s="4"/>
+      <c r="O25" s="6"/>
+      <c r="P25" s="6"/>
+      <c r="Q25" s="6"/>
+      <c r="R25" s="6"/>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="6"/>
+      <c r="M26" s="6"/>
+      <c r="N26" s="4"/>
+      <c r="O26" s="6"/>
+      <c r="P26" s="6"/>
+      <c r="Q26" s="6"/>
+      <c r="R26" s="6"/>
+    </row>
+    <row r="27" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="4"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4">
         <v>2</v>
       </c>
-      <c r="E27" s="2" t="s">
-        <v>10</v>
+      <c r="E27" s="3" t="s">
+        <v>8</v>
       </c>
-      <c r="F27" s="2"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="N27" s="1"/>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
-      <c r="M28" s="1"/>
-      <c r="N28" s="1"/>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A29" s="1"/>
-      <c r="D29" s="1"/>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A30" s="1"/>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A31" s="1"/>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
-      <c r="K32" s="8"/>
-      <c r="L32" s="8"/>
-      <c r="M32" s="1"/>
-      <c r="N32" s="1"/>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
-      <c r="L33" s="1"/>
-      <c r="M33" s="1"/>
-      <c r="N33" s="1"/>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
-      <c r="K34" s="1"/>
-      <c r="L34" s="1"/>
-      <c r="M34" s="1"/>
-      <c r="N34" s="1"/>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
-      <c r="K35" s="1"/>
-      <c r="L35" s="1"/>
-      <c r="M35" s="1"/>
-      <c r="N35" s="1"/>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
-      <c r="K36" s="1"/>
-      <c r="L36" s="1"/>
-      <c r="M36" s="1"/>
-      <c r="N36" s="1"/>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A37" s="1"/>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
-      <c r="K37" s="1"/>
-      <c r="L37" s="1"/>
-      <c r="M37" s="1"/>
-      <c r="N37" s="1"/>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A38" s="1"/>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
-      <c r="H38" s="1"/>
-      <c r="I38" s="1"/>
-      <c r="J38" s="1"/>
-      <c r="K38" s="1"/>
-      <c r="L38" s="1"/>
-      <c r="M38" s="1"/>
-      <c r="N38" s="1"/>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A39" s="1"/>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
-      <c r="I39" s="1"/>
-      <c r="J39" s="1"/>
-      <c r="K39" s="1"/>
-      <c r="L39" s="1"/>
-      <c r="M39" s="1"/>
-      <c r="N39" s="1"/>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A40" s="1"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
-      <c r="H40" s="1"/>
-      <c r="I40" s="1"/>
-      <c r="J40" s="1"/>
-      <c r="K40" s="1"/>
-      <c r="L40" s="1"/>
-      <c r="M40" s="1"/>
-      <c r="N40" s="1"/>
-    </row>
-    <row r="41" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="1"/>
-      <c r="B41" s="1" t="s">
+      <c r="F27" s="3"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="6"/>
+      <c r="L27" s="6"/>
+      <c r="M27" s="6"/>
+      <c r="N27" s="4"/>
+      <c r="O27" s="6"/>
+      <c r="P27" s="6"/>
+      <c r="Q27" s="6"/>
+      <c r="R27" s="6"/>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A28" s="4"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4"/>
+      <c r="M28" s="4"/>
+      <c r="N28" s="4"/>
+      <c r="O28" s="6"/>
+      <c r="P28" s="6"/>
+      <c r="Q28" s="6"/>
+      <c r="R28" s="6"/>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A29" s="4"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="6"/>
+      <c r="K29" s="6"/>
+      <c r="L29" s="6"/>
+      <c r="M29" s="6"/>
+      <c r="N29" s="6"/>
+      <c r="O29" s="6"/>
+      <c r="P29" s="6"/>
+      <c r="Q29" s="6"/>
+      <c r="R29" s="6"/>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A30" s="4"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
+      <c r="J30" s="6"/>
+      <c r="K30" s="6"/>
+      <c r="L30" s="6"/>
+      <c r="M30" s="6"/>
+      <c r="N30" s="6"/>
+      <c r="O30" s="6"/>
+      <c r="P30" s="6"/>
+      <c r="Q30" s="6"/>
+      <c r="R30" s="6"/>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A31" s="4"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="6"/>
+      <c r="J31" s="6"/>
+      <c r="K31" s="6"/>
+      <c r="L31" s="6"/>
+      <c r="M31" s="6"/>
+      <c r="N31" s="6"/>
+      <c r="O31" s="6"/>
+      <c r="P31" s="6"/>
+      <c r="Q31" s="6"/>
+      <c r="R31" s="6"/>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A32" s="4"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4"/>
+      <c r="K32" s="10"/>
+      <c r="L32" s="10"/>
+      <c r="M32" s="4"/>
+      <c r="N32" s="4"/>
+      <c r="O32" s="6"/>
+      <c r="P32" s="6"/>
+      <c r="Q32" s="6"/>
+      <c r="R32" s="6"/>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A33" s="4"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4"/>
+      <c r="K33" s="4"/>
+      <c r="L33" s="4"/>
+      <c r="M33" s="4"/>
+      <c r="N33" s="4"/>
+      <c r="O33" s="6"/>
+      <c r="P33" s="6"/>
+      <c r="Q33" s="6"/>
+      <c r="R33" s="6"/>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A34" s="4"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="4"/>
+      <c r="K34" s="4"/>
+      <c r="L34" s="4"/>
+      <c r="M34" s="4"/>
+      <c r="N34" s="4"/>
+      <c r="O34" s="6"/>
+      <c r="P34" s="6"/>
+      <c r="Q34" s="6"/>
+      <c r="R34" s="6"/>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A35" s="4"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="4"/>
+      <c r="K35" s="4"/>
+      <c r="L35" s="4"/>
+      <c r="M35" s="4"/>
+      <c r="N35" s="4"/>
+      <c r="O35" s="6"/>
+      <c r="P35" s="6"/>
+      <c r="Q35" s="6"/>
+      <c r="R35" s="6"/>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A36" s="4"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4"/>
+      <c r="J36" s="4"/>
+      <c r="K36" s="4"/>
+      <c r="L36" s="4"/>
+      <c r="M36" s="4"/>
+      <c r="N36" s="4"/>
+      <c r="O36" s="6"/>
+      <c r="P36" s="6"/>
+      <c r="Q36" s="6"/>
+      <c r="R36" s="6"/>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A37" s="4"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4"/>
+      <c r="J37" s="4"/>
+      <c r="K37" s="4"/>
+      <c r="L37" s="4"/>
+      <c r="M37" s="4"/>
+      <c r="N37" s="4"/>
+      <c r="O37" s="6"/>
+      <c r="P37" s="6"/>
+      <c r="Q37" s="6"/>
+      <c r="R37" s="6"/>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A38" s="4"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="4"/>
+      <c r="J38" s="4"/>
+      <c r="K38" s="4"/>
+      <c r="L38" s="4"/>
+      <c r="M38" s="4"/>
+      <c r="N38" s="4"/>
+      <c r="O38" s="6"/>
+      <c r="P38" s="6"/>
+      <c r="Q38" s="6"/>
+      <c r="R38" s="6"/>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A39" s="4"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4"/>
+      <c r="I39" s="4"/>
+      <c r="J39" s="4"/>
+      <c r="K39" s="4"/>
+      <c r="L39" s="4"/>
+      <c r="M39" s="4"/>
+      <c r="N39" s="4"/>
+      <c r="O39" s="6"/>
+      <c r="P39" s="6"/>
+      <c r="Q39" s="6"/>
+      <c r="R39" s="6"/>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A40" s="4"/>
+      <c r="B40" s="6"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
+      <c r="I40" s="4"/>
+      <c r="J40" s="4"/>
+      <c r="K40" s="4"/>
+      <c r="L40" s="4"/>
+      <c r="M40" s="4"/>
+      <c r="N40" s="4"/>
+      <c r="O40" s="6"/>
+      <c r="P40" s="6"/>
+      <c r="Q40" s="6"/>
+      <c r="R40" s="6"/>
+    </row>
+    <row r="41" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="4"/>
+      <c r="B41" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="4"/>
+      <c r="I41" s="4"/>
+      <c r="J41" s="4"/>
+      <c r="K41" s="4"/>
+      <c r="L41" s="4"/>
+      <c r="M41" s="4"/>
+      <c r="N41" s="4"/>
+      <c r="O41" s="6"/>
+      <c r="P41" s="6"/>
+      <c r="Q41" s="6"/>
+      <c r="R41" s="6"/>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A42" s="4"/>
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="4"/>
+      <c r="I42" s="4"/>
+      <c r="J42" s="4"/>
+      <c r="K42" s="6"/>
+      <c r="L42" s="6"/>
+      <c r="M42" s="6"/>
+      <c r="N42" s="6"/>
+      <c r="O42" s="6"/>
+      <c r="P42" s="6"/>
+      <c r="Q42" s="6"/>
+      <c r="R42" s="6"/>
+    </row>
+    <row r="43" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="4"/>
+      <c r="B43" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="4"/>
+      <c r="I43" s="4"/>
+      <c r="J43" s="4"/>
+      <c r="K43" s="6"/>
+      <c r="L43" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
-      <c r="H41" s="1"/>
-      <c r="I41" s="1"/>
-      <c r="J41" s="1"/>
-      <c r="K41" s="1"/>
-      <c r="L41" s="1"/>
-      <c r="M41" s="1"/>
-      <c r="N41" s="1"/>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A42" s="1"/>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
-      <c r="H42" s="1"/>
-      <c r="I42" s="1"/>
-      <c r="J42" s="1"/>
-    </row>
-    <row r="43" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="1"/>
-      <c r="B43" s="1" t="s">
+      <c r="M43" s="3"/>
+      <c r="N43" s="3"/>
+      <c r="O43" s="3"/>
+      <c r="P43" s="6"/>
+      <c r="Q43" s="6"/>
+      <c r="R43" s="6"/>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A44" s="4"/>
+      <c r="B44" s="4"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="4"/>
+      <c r="I44" s="4"/>
+      <c r="J44" s="4"/>
+      <c r="K44" s="6"/>
+      <c r="L44" s="4"/>
+      <c r="M44" s="4"/>
+      <c r="N44" s="4"/>
+      <c r="O44" s="4"/>
+      <c r="P44" s="6"/>
+      <c r="Q44" s="6"/>
+      <c r="R44" s="6"/>
+    </row>
+    <row r="45" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="6"/>
+      <c r="B45" s="4"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="4"/>
+      <c r="H45" s="4"/>
+      <c r="I45" s="4"/>
+      <c r="J45" s="4"/>
+      <c r="K45" s="4"/>
+      <c r="L45" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
-      <c r="H43" s="1"/>
-      <c r="I43" s="1"/>
-      <c r="J43" s="1"/>
-      <c r="L43" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="M43" s="2"/>
-      <c r="N43" s="2"/>
-      <c r="O43" s="2"/>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A44" s="1"/>
-      <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
-      <c r="G44" s="1"/>
-      <c r="H44" s="1"/>
-      <c r="I44" s="1"/>
-      <c r="J44" s="1"/>
-      <c r="L44" s="1"/>
-      <c r="M44" s="1"/>
-      <c r="N44" s="1"/>
-      <c r="O44" s="1"/>
-    </row>
-    <row r="45" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
-      <c r="F45" s="1"/>
-      <c r="G45" s="1"/>
-      <c r="H45" s="1"/>
-      <c r="I45" s="1"/>
-      <c r="J45" s="1"/>
-      <c r="K45" s="1"/>
-      <c r="L45" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="M45" s="2"/>
-      <c r="N45" s="2"/>
-      <c r="O45" s="2"/>
+      <c r="M45" s="3"/>
+      <c r="N45" s="3"/>
+      <c r="O45" s="3"/>
+      <c r="P45" s="6"/>
+      <c r="Q45" s="6"/>
+      <c r="R45" s="6"/>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A46" s="6"/>
+      <c r="B46" s="6"/>
+      <c r="C46" s="6"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="6"/>
+      <c r="F46" s="6"/>
+      <c r="G46" s="6"/>
+      <c r="H46" s="6"/>
+      <c r="I46" s="6"/>
+      <c r="J46" s="6"/>
+      <c r="K46" s="6"/>
+      <c r="L46" s="6"/>
+      <c r="M46" s="6"/>
+      <c r="N46" s="6"/>
+      <c r="O46" s="6"/>
+      <c r="P46" s="6"/>
+      <c r="Q46" s="6"/>
+      <c r="R46" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="2">
